--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Nodal</t>
+  </si>
+  <si>
+    <t>Acvr1b</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Nodal</t>
-  </si>
-  <si>
-    <t>Acvr1b</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H2">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I2">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J2">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N2">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O2">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P2">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q2">
-        <v>3.076900029324</v>
+        <v>2.358519460247</v>
       </c>
       <c r="R2">
-        <v>12.307600117296</v>
+        <v>9.434077840988</v>
       </c>
       <c r="S2">
-        <v>0.05217492527764114</v>
+        <v>0.06120702597597256</v>
       </c>
       <c r="T2">
-        <v>0.03046977610014666</v>
+        <v>0.03608186743901773</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H3">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I3">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J3">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.591557</v>
       </c>
       <c r="O3">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P3">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q3">
-        <v>4.280965689759001</v>
+        <v>3.146940686039333</v>
       </c>
       <c r="R3">
-        <v>25.68579413855401</v>
+        <v>18.881644116236</v>
       </c>
       <c r="S3">
-        <v>0.07259223986825263</v>
+        <v>0.08166770873074861</v>
       </c>
       <c r="T3">
-        <v>0.06359000852297332</v>
+        <v>0.07221532316309442</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H4">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I4">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J4">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N4">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O4">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P4">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q4">
-        <v>4.821775190958</v>
+        <v>4.631665903984</v>
       </c>
       <c r="R4">
-        <v>28.930651145748</v>
+        <v>27.789995423904</v>
       </c>
       <c r="S4">
-        <v>0.08176273453677632</v>
+        <v>0.1201984974368141</v>
       </c>
       <c r="T4">
-        <v>0.07162326159781526</v>
+        <v>0.1062864805566627</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H5">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I5">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J5">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N5">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O5">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P5">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q5">
-        <v>3.119167213164001</v>
+        <v>1.804349500463</v>
       </c>
       <c r="R5">
-        <v>12.476668852656</v>
+        <v>7.217398001852</v>
       </c>
       <c r="S5">
-        <v>0.05289164897276647</v>
+        <v>0.04682550583364958</v>
       </c>
       <c r="T5">
-        <v>0.03088833751446454</v>
+        <v>0.02760388480430248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H6">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I6">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J6">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N6">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O6">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P6">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q6">
-        <v>2.282460226125</v>
+        <v>4.627897040010666</v>
       </c>
       <c r="R6">
-        <v>13.69476135675</v>
+        <v>27.76738224006399</v>
       </c>
       <c r="S6">
-        <v>0.03870362722620644</v>
+        <v>0.1201006899100991</v>
       </c>
       <c r="T6">
-        <v>0.03390395432970807</v>
+        <v>0.1061999934706495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.019961</v>
+        <v>0.7497739999999999</v>
       </c>
       <c r="H7">
-        <v>2.039922</v>
+        <v>1.499548</v>
       </c>
       <c r="I7">
-        <v>0.3840722173751125</v>
+        <v>0.4969779054352629</v>
       </c>
       <c r="J7">
-        <v>0.3057640068128025</v>
+        <v>0.4076138027016631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N7">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O7">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P7">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q7">
-        <v>5.068535375649001</v>
+        <v>2.580913550294667</v>
       </c>
       <c r="R7">
-        <v>30.411212253894</v>
+        <v>15.485481301768</v>
       </c>
       <c r="S7">
-        <v>0.0859470414934695</v>
+        <v>0.06697847754797899</v>
       </c>
       <c r="T7">
-        <v>0.07528866874769469</v>
+        <v>0.05922625326793628</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.289202</v>
       </c>
       <c r="I8">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J8">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N8">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O8">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P8">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q8">
-        <v>1.296371682056</v>
+        <v>1.351788674627</v>
       </c>
       <c r="R8">
-        <v>7.778230092336</v>
+        <v>8.110732047762001</v>
       </c>
       <c r="S8">
-        <v>0.02198254574367239</v>
+        <v>0.03508089117621923</v>
       </c>
       <c r="T8">
-        <v>0.01925646975122641</v>
+        <v>0.03102055797221332</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.289202</v>
       </c>
       <c r="I9">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J9">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>12.591557</v>
       </c>
       <c r="O9">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P9">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q9">
         <v>1.803673385279334</v>
@@ -1013,10 +1013,10 @@
         <v>16.233060467514</v>
       </c>
       <c r="S9">
-        <v>0.03058484942810918</v>
+        <v>0.04680795965677595</v>
       </c>
       <c r="T9">
-        <v>0.04018799060348104</v>
+        <v>0.06208546778929896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.289202</v>
       </c>
       <c r="I10">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J10">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N10">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O10">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P10">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q10">
-        <v>2.031529381918667</v>
+        <v>2.654645687344001</v>
       </c>
       <c r="R10">
-        <v>18.283764437268</v>
+        <v>23.89181118609601</v>
       </c>
       <c r="S10">
-        <v>0.03444859848898834</v>
+        <v>0.06889193423286467</v>
       </c>
       <c r="T10">
-        <v>0.04526489350986294</v>
+        <v>0.09137736391673405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.289202</v>
       </c>
       <c r="I11">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J11">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N11">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O11">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P11">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q11">
-        <v>1.314179859016</v>
+        <v>1.034165399483</v>
       </c>
       <c r="R11">
-        <v>7.885079154096002</v>
+        <v>6.204992396898001</v>
       </c>
       <c r="S11">
-        <v>0.02228451860381214</v>
+        <v>0.02683810311362834</v>
       </c>
       <c r="T11">
-        <v>0.0195209946754448</v>
+        <v>0.02373180684944821</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.289202</v>
       </c>
       <c r="I12">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J12">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N12">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O12">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P12">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q12">
-        <v>0.9616551640833334</v>
+        <v>2.652485557770667</v>
       </c>
       <c r="R12">
-        <v>8.65489647675</v>
+        <v>23.872370019936</v>
       </c>
       <c r="S12">
-        <v>0.01630676520222499</v>
+        <v>0.06883587571431733</v>
       </c>
       <c r="T12">
-        <v>0.02142682206955378</v>
+        <v>0.09130300862816547</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.289202</v>
       </c>
       <c r="I13">
-        <v>0.1618188247016078</v>
+        <v>0.2848435704816616</v>
       </c>
       <c r="J13">
-        <v>0.1932385498617489</v>
+        <v>0.3504366180146214</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N13">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O13">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P13">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q13">
-        <v>2.135495358272667</v>
+        <v>1.479254153414667</v>
       </c>
       <c r="R13">
-        <v>19.21945822445401</v>
+        <v>13.313287380732</v>
       </c>
       <c r="S13">
-        <v>0.03621154723480077</v>
+        <v>0.03838880658785609</v>
       </c>
       <c r="T13">
-        <v>0.04758137925217998</v>
+        <v>0.05091841285876144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H14">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I14">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J14">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N14">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O14">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P14">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q14">
-        <v>0.2633283574826666</v>
+        <v>0.3063256175305</v>
       </c>
       <c r="R14">
-        <v>1.579970144896</v>
+        <v>1.225302470122</v>
       </c>
       <c r="S14">
-        <v>0.004465253093764187</v>
+        <v>0.007949597340753593</v>
       </c>
       <c r="T14">
-        <v>0.003911512894560481</v>
+        <v>0.004686329924856004</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H15">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I15">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J15">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>12.591557</v>
       </c>
       <c r="O15">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P15">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q15">
-        <v>0.3663751349671112</v>
+        <v>0.4087261374056667</v>
       </c>
       <c r="R15">
-        <v>3.297376214704</v>
+        <v>2.452356824434</v>
       </c>
       <c r="S15">
-        <v>0.006212615004815233</v>
+        <v>0.01060704044673332</v>
       </c>
       <c r="T15">
-        <v>0.008163274238881715</v>
+        <v>0.009379360160455414</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H16">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I16">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J16">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N16">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O16">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P16">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q16">
-        <v>0.4126588868942223</v>
+        <v>0.601562947496</v>
       </c>
       <c r="R16">
-        <v>3.713929982048</v>
+        <v>3.609377684976</v>
       </c>
       <c r="S16">
-        <v>0.006997447555548591</v>
+        <v>0.01561143741833458</v>
       </c>
       <c r="T16">
-        <v>0.009194531340484133</v>
+        <v>0.0138045381182708</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H17">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I17">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J17">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N17">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O17">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P17">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q17">
-        <v>0.2669456827093334</v>
+        <v>0.2343497623345</v>
       </c>
       <c r="R17">
-        <v>1.601674096256</v>
+        <v>0.937399049338</v>
       </c>
       <c r="S17">
-        <v>0.004526591997078418</v>
+        <v>0.006081718736027964</v>
       </c>
       <c r="T17">
-        <v>0.003965245103287212</v>
+        <v>0.003585205550109472</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H18">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I18">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J18">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N18">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O18">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P18">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q18">
-        <v>0.1953383264444444</v>
+        <v>0.6010734456693332</v>
       </c>
       <c r="R18">
-        <v>1.758044938</v>
+        <v>3.606440674016</v>
       </c>
       <c r="S18">
-        <v>0.003312347651521687</v>
+        <v>0.01559873413073188</v>
       </c>
       <c r="T18">
-        <v>0.004352370496631395</v>
+        <v>0.01379330513483438</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.08729066666666667</v>
+        <v>0.097381</v>
       </c>
       <c r="H19">
-        <v>0.261872</v>
+        <v>0.194762</v>
       </c>
       <c r="I19">
-        <v>0.0328698057110208</v>
+        <v>0.06454772425983209</v>
       </c>
       <c r="J19">
-        <v>0.03925200669049219</v>
+        <v>0.05294107253771223</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N19">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O19">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P19">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q19">
-        <v>0.4337772051715556</v>
+        <v>0.3352102666153333</v>
       </c>
       <c r="R19">
-        <v>3.903994846544</v>
+        <v>2.011261599692</v>
       </c>
       <c r="S19">
-        <v>0.007355550408292685</v>
+        <v>0.008699196187250749</v>
       </c>
       <c r="T19">
-        <v>0.009665072616647254</v>
+        <v>0.007692333649186158</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H20">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I20">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J20">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N20">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O20">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P20">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q20">
-        <v>0.830882257436</v>
+        <v>0.4496147850396667</v>
       </c>
       <c r="R20">
-        <v>3.323529029744</v>
+        <v>2.697688710238</v>
       </c>
       <c r="S20">
-        <v>0.01408925193639308</v>
+        <v>0.01166816059436803</v>
       </c>
       <c r="T20">
-        <v>0.008228020445377121</v>
+        <v>0.0103176641188651</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H21">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I21">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J21">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>12.591557</v>
       </c>
       <c r="O21">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P21">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q21">
-        <v>1.156026650984334</v>
+        <v>0.5999149398317779</v>
       </c>
       <c r="R21">
-        <v>6.936159905906002</v>
+        <v>5.399234458486</v>
       </c>
       <c r="S21">
-        <v>0.01960271817713908</v>
+        <v>0.01556866921157911</v>
       </c>
       <c r="T21">
-        <v>0.01717176681998039</v>
+        <v>0.02065007998522793</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H22">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I22">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J22">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N22">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O22">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P22">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q22">
-        <v>1.302066176128667</v>
+        <v>0.8829545419893335</v>
       </c>
       <c r="R22">
-        <v>7.812397056772</v>
+        <v>7.946590877904002</v>
       </c>
       <c r="S22">
-        <v>0.0220791071528517</v>
+        <v>0.02291396043070357</v>
       </c>
       <c r="T22">
-        <v>0.01934105649002722</v>
+        <v>0.03039277855042711</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H23">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I23">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J23">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N23">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O23">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P23">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q23">
-        <v>0.8422960351960002</v>
+        <v>0.3439709641836667</v>
       </c>
       <c r="R23">
-        <v>3.369184140784001</v>
+        <v>2.063825785102</v>
       </c>
       <c r="S23">
-        <v>0.01428279511169554</v>
+        <v>0.008926549089217674</v>
       </c>
       <c r="T23">
-        <v>0.008341048249169774</v>
+        <v>0.007893372267053335</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H24">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I24">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J24">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N24">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O24">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P24">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q24">
-        <v>0.6163527209583334</v>
+        <v>0.8822360671182222</v>
       </c>
       <c r="R24">
-        <v>3.69811632575</v>
+        <v>7.940124604064</v>
       </c>
       <c r="S24">
-        <v>0.01045147936370784</v>
+        <v>0.02289531495804989</v>
       </c>
       <c r="T24">
-        <v>0.00915538166368828</v>
+        <v>0.03036804743844649</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.275429</v>
+        <v>0.1429326666666667</v>
       </c>
       <c r="H25">
-        <v>0.5508580000000001</v>
+        <v>0.428798</v>
       </c>
       <c r="I25">
-        <v>0.1037143839415525</v>
+        <v>0.0947410517012815</v>
       </c>
       <c r="J25">
-        <v>0.08256813214666382</v>
+        <v>0.1165577783244469</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N25">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O25">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P25">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q25">
-        <v>1.368700989527667</v>
+        <v>0.4920107341408889</v>
       </c>
       <c r="R25">
-        <v>8.212205937166001</v>
+        <v>4.428096607267999</v>
       </c>
       <c r="S25">
-        <v>0.0232090321997653</v>
+        <v>0.01276839741736323</v>
       </c>
       <c r="T25">
-        <v>0.02033085847842104</v>
+        <v>0.01693583596442698</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H26">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I26">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J26">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.016684</v>
+        <v>3.1456405</v>
       </c>
       <c r="N26">
-        <v>6.033367999999999</v>
+        <v>6.291281</v>
       </c>
       <c r="O26">
-        <v>0.1358466530961894</v>
+        <v>0.1231584448857264</v>
       </c>
       <c r="P26">
-        <v>0.09965128472037957</v>
+        <v>0.08851973902715565</v>
       </c>
       <c r="Q26">
-        <v>1.811517736438667</v>
+        <v>0.2794744302225</v>
       </c>
       <c r="R26">
-        <v>10.869106418632</v>
+        <v>1.676846581335</v>
       </c>
       <c r="S26">
-        <v>0.03071786591603183</v>
+        <v>0.007252769798412964</v>
       </c>
       <c r="T26">
-        <v>0.02690851472489541</v>
+        <v>0.006413319572203486</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H27">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I27">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J27">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>12.591557</v>
       </c>
       <c r="O27">
-        <v>0.1890067455656493</v>
+        <v>0.1643286509069703</v>
       </c>
       <c r="P27">
-        <v>0.2079708765783703</v>
+        <v>0.1771660397279274</v>
       </c>
       <c r="Q27">
-        <v>2.520408593771445</v>
+        <v>0.372898960555</v>
       </c>
       <c r="R27">
-        <v>22.683677343943</v>
+        <v>3.356090644995</v>
       </c>
       <c r="S27">
-        <v>0.04273851239750579</v>
+        <v>0.009677272861133302</v>
       </c>
       <c r="T27">
-        <v>0.05615770444366396</v>
+        <v>0.01283580862985071</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
         <v>27</v>
       </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H28">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I28">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J28">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.727411333333333</v>
+        <v>6.177416000000001</v>
       </c>
       <c r="N28">
-        <v>14.182234</v>
+        <v>18.532248</v>
       </c>
       <c r="O28">
-        <v>0.2128837516433035</v>
+        <v>0.241858835417526</v>
       </c>
       <c r="P28">
-        <v>0.234243599645347</v>
+        <v>0.2607528985824235</v>
       </c>
       <c r="Q28">
-        <v>2.838808929862889</v>
+        <v>0.5488325245200001</v>
       </c>
       <c r="R28">
-        <v>25.549280368766</v>
+        <v>4.939492720680001</v>
       </c>
       <c r="S28">
-        <v>0.048137619806139</v>
+        <v>0.01424300589880917</v>
       </c>
       <c r="T28">
-        <v>0.06325204304145088</v>
+        <v>0.01889173744032875</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H29">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I29">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J29">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.058124</v>
+        <v>2.4065245</v>
       </c>
       <c r="N29">
-        <v>6.116248000000001</v>
+        <v>4.813049</v>
       </c>
       <c r="O29">
-        <v>0.1377127700989335</v>
+        <v>0.09422049817816125</v>
       </c>
       <c r="P29">
-        <v>0.1010201882047394</v>
+        <v>0.06772068222750066</v>
       </c>
       <c r="Q29">
-        <v>1.836402442625333</v>
+        <v>0.2138076692025</v>
       </c>
       <c r="R29">
-        <v>11.018414655752</v>
+        <v>1.282846015215</v>
       </c>
       <c r="S29">
-        <v>0.03113983532468066</v>
+        <v>0.005548621405637695</v>
       </c>
       <c r="T29">
-        <v>0.02727815531376706</v>
+        <v>0.00490641275658716</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H30">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I30">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J30">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.237791666666666</v>
+        <v>6.172389333333332</v>
       </c>
       <c r="N30">
-        <v>6.713374999999999</v>
+        <v>18.517168</v>
       </c>
       <c r="O30">
-        <v>0.1007717441545784</v>
+        <v>0.2416620308400081</v>
       </c>
       <c r="P30">
-        <v>0.1108827513189446</v>
+        <v>0.2605407195898574</v>
       </c>
       <c r="Q30">
-        <v>1.343793149902778</v>
+        <v>0.5483859303199999</v>
       </c>
       <c r="R30">
-        <v>12.094138349125</v>
+        <v>4.93547337288</v>
       </c>
       <c r="S30">
-        <v>0.0227866705179197</v>
+        <v>0.01423141612680989</v>
       </c>
       <c r="T30">
-        <v>0.0299413113937762</v>
+        <v>0.0188763649177616</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.6004996666666667</v>
+        <v>0.08884500000000001</v>
       </c>
       <c r="H31">
-        <v>1.801499</v>
+        <v>0.266535</v>
       </c>
       <c r="I31">
-        <v>0.2261216247578903</v>
+        <v>0.058889748121962</v>
       </c>
       <c r="J31">
-        <v>0.270026771861501</v>
+        <v>0.07245072842155623</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.969342333333334</v>
+        <v>3.442255333333333</v>
       </c>
       <c r="N31">
-        <v>14.908027</v>
+        <v>10.326766</v>
       </c>
       <c r="O31">
-        <v>0.2237783354413461</v>
+        <v>0.134771539771608</v>
       </c>
       <c r="P31">
-        <v>0.2462312995322192</v>
+        <v>0.1452999208451354</v>
       </c>
       <c r="Q31">
-        <v>2.984088414719222</v>
+        <v>0.30582717509</v>
       </c>
       <c r="R31">
-        <v>26.856795732473</v>
+        <v>2.75244457581</v>
       </c>
       <c r="S31">
-        <v>0.05060112079561337</v>
+        <v>0.00793666203115898</v>
       </c>
       <c r="T31">
-        <v>0.06648904294394746</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H32">
-        <v>0.728204</v>
-      </c>
-      <c r="I32">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J32">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.016684</v>
-      </c>
-      <c r="N32">
-        <v>6.033367999999999</v>
-      </c>
-      <c r="O32">
-        <v>0.1358466530961894</v>
-      </c>
-      <c r="P32">
-        <v>0.09965128472037957</v>
-      </c>
-      <c r="Q32">
-        <v>0.7322537851786666</v>
-      </c>
-      <c r="R32">
-        <v>4.393522711071999</v>
-      </c>
-      <c r="S32">
-        <v>0.01241681112868675</v>
-      </c>
-      <c r="T32">
-        <v>0.01087699080417349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H33">
-        <v>0.728204</v>
-      </c>
-      <c r="I33">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J33">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>4.197185666666667</v>
-      </c>
-      <c r="N33">
-        <v>12.591557</v>
-      </c>
-      <c r="O33">
-        <v>0.1890067455656493</v>
-      </c>
-      <c r="P33">
-        <v>0.2079708765783703</v>
-      </c>
-      <c r="Q33">
-        <v>1.018802463736445</v>
-      </c>
-      <c r="R33">
-        <v>9.169222173628</v>
-      </c>
-      <c r="S33">
-        <v>0.01727581068982736</v>
-      </c>
-      <c r="T33">
-        <v>0.02270013194938986</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H34">
-        <v>0.728204</v>
-      </c>
-      <c r="I34">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J34">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>4.727411333333333</v>
-      </c>
-      <c r="N34">
-        <v>14.182234</v>
-      </c>
-      <c r="O34">
-        <v>0.2128837516433035</v>
-      </c>
-      <c r="P34">
-        <v>0.234243599645347</v>
-      </c>
-      <c r="Q34">
-        <v>1.147506614192889</v>
-      </c>
-      <c r="R34">
-        <v>10.327559527736</v>
-      </c>
-      <c r="S34">
-        <v>0.01945824410299958</v>
-      </c>
-      <c r="T34">
-        <v>0.02556781366570656</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H35">
-        <v>0.728204</v>
-      </c>
-      <c r="I35">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J35">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.058124</v>
-      </c>
-      <c r="N35">
-        <v>6.116248000000001</v>
-      </c>
-      <c r="O35">
-        <v>0.1377127700989335</v>
-      </c>
-      <c r="P35">
-        <v>0.1010201882047394</v>
-      </c>
-      <c r="Q35">
-        <v>0.7423127097653334</v>
-      </c>
-      <c r="R35">
-        <v>4.453876258592</v>
-      </c>
-      <c r="S35">
-        <v>0.01258738008890027</v>
-      </c>
-      <c r="T35">
-        <v>0.01102640734860604</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H36">
-        <v>0.728204</v>
-      </c>
-      <c r="I36">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J36">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>2.237791666666666</v>
-      </c>
-      <c r="N36">
-        <v>6.713374999999999</v>
-      </c>
-      <c r="O36">
-        <v>0.1007717441545784</v>
-      </c>
-      <c r="P36">
-        <v>0.1108827513189446</v>
-      </c>
-      <c r="Q36">
-        <v>0.5431896142777777</v>
-      </c>
-      <c r="R36">
-        <v>4.888706528499999</v>
-      </c>
-      <c r="S36">
-        <v>0.009210854192997718</v>
-      </c>
-      <c r="T36">
-        <v>0.01210291136558688</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.2427346666666667</v>
-      </c>
-      <c r="H37">
-        <v>0.728204</v>
-      </c>
-      <c r="I37">
-        <v>0.09140314351281614</v>
-      </c>
-      <c r="J37">
-        <v>0.1091505326267916</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>4.969342333333334</v>
-      </c>
-      <c r="N37">
-        <v>14.908027</v>
-      </c>
-      <c r="O37">
-        <v>0.2237783354413461</v>
-      </c>
-      <c r="P37">
-        <v>0.2462312995322192</v>
-      </c>
-      <c r="Q37">
-        <v>1.206231654834222</v>
-      </c>
-      <c r="R37">
-        <v>10.856084893508</v>
-      </c>
-      <c r="S37">
-        <v>0.02045404330940447</v>
-      </c>
-      <c r="T37">
-        <v>0.02687627749332879</v>
+        <v>0.01052708510482452</v>
       </c>
     </row>
   </sheetData>
